--- a/2.4/算order.xlsx
+++ b/2.4/算order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MATLAB\2.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67EE857-DA8D-478C-BB84-EAECAC3BD2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E016D58B-2DA7-49BA-A08F-8DC67D077F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2520" windowWidth="21840" windowHeight="13140" xr2:uid="{E9D75F26-A4E4-484C-83C7-8B0472794C4F}"/>
   </bookViews>
@@ -147,10 +147,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB876472-BCC3-48BA-836F-6314BAA39CC7}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -622,11 +622,11 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -717,16 +717,9 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>320</v>
-      </c>
-      <c r="B16" s="5">
-        <v>5.8113338632578996E-12</v>
-      </c>
-      <c r="C16" s="5">
-        <f>LOG(B15/B16)/LOG(2)</f>
-        <v>-2.2604924689663051</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -768,11 +761,11 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -863,16 +856,14 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>320</v>
-      </c>
-      <c r="B26" s="5">
-        <v>5.8069843869692199E-12</v>
-      </c>
-      <c r="C26" s="10">
-        <f>LOG(B25/B26)/LOG(2)</f>
-        <v>-2.5474864410528815</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
